--- a/scrum/ScrumDokumentation.xlsx
+++ b/scrum/ScrumDokumentation.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Explorationssprint" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Explorationssprint" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -211,10 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,22 +218,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -253,7 +234,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -261,75 +242,322 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.47448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.77040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="121.65306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8367346938776"/>
+    <col min="1" max="1" width="10.875"/>
+    <col min="2" max="2" width="4.5"/>
+    <col min="3" max="3" width="5.75"/>
+    <col min="4" max="4" width="23.625"/>
+    <col min="5" max="5" width="121.625"/>
+    <col min="6" max="6" width="29.75"/>
+    <col min="7" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -346,249 +574,248 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="2:6">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="2:6">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="2:6">
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="2:6">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+    <row r="8" spans="2:6">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+    <row r="9" spans="2:6">
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="2:6">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+    <row r="11" spans="2:6">
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="2:6">
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="2:6">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="2:6">
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="2:6">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="2:6">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>8</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="2:6">
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
@@ -597,30 +824,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.8367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.8571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8367346938776"/>
+    <col min="1" max="2" width="10.875"/>
+    <col min="3" max="3" width="27.25"/>
+    <col min="4" max="4" width="42.875"/>
+    <col min="5" max="5" width="43"/>
+    <col min="6" max="6" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -637,85 +862,83 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+    <row r="4" spans="1:6">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="1:6">
+      <c r="D5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:6">
+      <c r="D6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+    <row r="7" spans="1:6">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:6">
+      <c r="D8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="1:6">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:6">
+      <c r="D11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+    <row r="12" spans="1:6">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="0" t="s">
+    <row r="13" spans="1:6">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>

--- a/scrum/ScrumDokumentation.xlsx
+++ b/scrum/ScrumDokumentation.xlsx
@@ -167,43 +167,43 @@
     <t>Dokumentationsumgebung</t>
   </si>
   <si>
-    <t>Werkzeugsuche für Scrum-Planung (K)</t>
-  </si>
-  <si>
-    <t>Übertragung des Backlogs aus Excel</t>
-  </si>
-  <si>
     <t>Dokumentationstool für Software aussuchen</t>
   </si>
   <si>
     <t>Infrastruktur</t>
   </si>
   <si>
-    <t>Einrichtung Github Repository (M)</t>
-  </si>
-  <si>
-    <t>Einrichtung Buildserver</t>
-  </si>
-  <si>
-    <t>Einrichtung Entwicklungsumgebung (M)</t>
-  </si>
-  <si>
     <t>Grundsätzliche Architektur</t>
   </si>
   <si>
-    <t>UML-Klassendiagramm</t>
-  </si>
-  <si>
-    <t>Coding-Standards festlegen</t>
-  </si>
-  <si>
     <t>Informationssuche</t>
   </si>
   <si>
     <t>ADA kennen lernen (M)</t>
   </si>
   <si>
-    <t>EXIF-Format untersuchen (L)</t>
+    <t>Übertragung des Backlogs aus Excel (K)</t>
+  </si>
+  <si>
+    <t>Werkzeugsuche für Scrum-Planung</t>
+  </si>
+  <si>
+    <t>Einrichtung Buildserver (A)</t>
+  </si>
+  <si>
+    <t>UML-Klassendiagramm (L)</t>
+  </si>
+  <si>
+    <t>EXIF-Format untersuchen</t>
+  </si>
+  <si>
+    <t>Einrichtung Github Repository</t>
+  </si>
+  <si>
+    <t>Coding-Standards festlegen (S)</t>
+  </si>
+  <si>
+    <t>Einrichtung Entwicklungsumgebung</t>
   </si>
 </sst>
 </file>
@@ -548,13 +548,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.875"/>
-    <col min="2" max="2" width="4.5"/>
-    <col min="3" max="3" width="5.75"/>
-    <col min="4" max="4" width="23.625"/>
-    <col min="5" max="5" width="121.625"/>
-    <col min="6" max="6" width="29.75"/>
-    <col min="7" max="1025" width="10.875"/>
+    <col min="1" max="1" width="10.85546875"/>
+    <col min="2" max="2" width="4.42578125"/>
+    <col min="3" max="3" width="5.7109375"/>
+    <col min="4" max="4" width="23.5703125"/>
+    <col min="5" max="5" width="121.5703125"/>
+    <col min="6" max="6" width="29.7109375"/>
+    <col min="7" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
@@ -827,17 +827,17 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.875"/>
-    <col min="3" max="3" width="27.25"/>
-    <col min="4" max="4" width="42.875"/>
+    <col min="1" max="2" width="10.85546875"/>
+    <col min="3" max="3" width="27.28515625"/>
+    <col min="4" max="4" width="42.85546875"/>
     <col min="5" max="5" width="43"/>
-    <col min="6" max="6" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="1025" width="10.875"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -870,17 +870,17 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="F6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -888,20 +888,20 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" t="s">
-        <v>55</v>
+      <c r="E8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="E9" t="s">
-        <v>56</v>
+      <c r="F9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -909,15 +909,15 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="D11" t="s">
-        <v>59</v>
+      <c r="E11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -925,15 +925,15 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="E13" t="s">
-        <v>62</v>
+      <c r="F13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/ScrumDokumentation.xlsx
+++ b/scrum/ScrumDokumentation.xlsx
@@ -179,12 +179,6 @@
     <t>Informationssuche</t>
   </si>
   <si>
-    <t>ADA kennen lernen (M)</t>
-  </si>
-  <si>
-    <t>Übertragung des Backlogs aus Excel (K)</t>
-  </si>
-  <si>
     <t>Werkzeugsuche für Scrum-Planung</t>
   </si>
   <si>
@@ -200,10 +194,16 @@
     <t>Einrichtung Github Repository</t>
   </si>
   <si>
-    <t>Coding-Standards festlegen (S)</t>
-  </si>
-  <si>
     <t>Einrichtung Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Übertragung des Backlogs aus Excel</t>
+  </si>
+  <si>
+    <t>Coding-Standards festlegen</t>
+  </si>
+  <si>
+    <t>ADA kennen lernen</t>
   </si>
 </sst>
 </file>
@@ -870,12 +870,12 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="E5" t="s">
-        <v>55</v>
+      <c r="F5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -891,17 +891,17 @@
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -912,11 +912,11 @@
         <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -927,13 +927,13 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-      <c r="E12" t="s">
-        <v>54</v>
+      <c r="F12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/ScrumDokumentation.xlsx
+++ b/scrum/ScrumDokumentation.xlsx
@@ -182,12 +182,6 @@
     <t>Werkzeugsuche für Scrum-Planung</t>
   </si>
   <si>
-    <t>Einrichtung Buildserver (A)</t>
-  </si>
-  <si>
-    <t>UML-Klassendiagramm (L)</t>
-  </si>
-  <si>
     <t>EXIF-Format untersuchen</t>
   </si>
   <si>
@@ -204,6 +198,12 @@
   </si>
   <si>
     <t>ADA kennen lernen</t>
+  </si>
+  <si>
+    <t>Einrichtung Buildserver (verschoben)</t>
+  </si>
+  <si>
+    <t>UML-Klassendiagramm</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -875,7 +875,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -891,17 +891,17 @@
         <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="E8" t="s">
-        <v>55</v>
+      <c r="F8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="F9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -911,13 +911,13 @@
       <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s">
-        <v>56</v>
+      <c r="F10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -928,12 +928,12 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="F13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
